--- a/Documents/Logboeken/Logboek Joey.xlsx
+++ b/Documents/Logboeken/Logboek Joey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeyo\Desktop\Radius\Jaar 1\Periode_4\PR\project_fifa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeyo\Desktop\Radius\Jaar 1\Periode_4\PR\project_fifa\Documents\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t>Meegeholpen met conventierapport</t>
+  </si>
+  <si>
+    <t>Dag</t>
+  </si>
+  <si>
+    <t>dinsdag</t>
+  </si>
+  <si>
+    <t>Woensdag</t>
+  </si>
+  <si>
+    <t>Plan van aanpak gemaakt</t>
+  </si>
+  <si>
+    <t>Interview gehouden met opdrachtgever</t>
   </si>
 </sst>
 </file>
@@ -444,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,6 +486,9 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -491,6 +509,9 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="3">
         <v>0.5625</v>
       </c>
@@ -510,6 +531,28 @@
       </c>
       <c r="G8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E10">
+        <v>330</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Logboeken/Logboek Joey.xlsx
+++ b/Documents/Logboeken/Logboek Joey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -76,9 +76,6 @@
     <t>Dag</t>
   </si>
   <si>
-    <t>dinsdag</t>
-  </si>
-  <si>
     <t>Woensdag</t>
   </si>
   <si>
@@ -86,6 +83,15 @@
   </si>
   <si>
     <t>Interview gehouden met opdrachtgever</t>
+  </si>
+  <si>
+    <t>Donderdag</t>
+  </si>
+  <si>
+    <t>Dinsdag</t>
+  </si>
+  <si>
+    <t>plan van eisen gemaakt</t>
   </si>
 </sst>
 </file>
@@ -459,13 +465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -510,7 +519,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>0.5625</v>
@@ -535,7 +544,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>0.54166666666666663</v>
@@ -544,7 +553,7 @@
         <v>330</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -552,7 +561,21 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E13">
+        <v>330</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Logboeken/Logboek Joey.xlsx
+++ b/Documents/Logboeken/Logboek Joey.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>plan van eisen gemaakt</t>
+  </si>
+  <si>
+    <t>Vrijdag</t>
+  </si>
+  <si>
+    <t>Ziek</t>
+  </si>
+  <si>
+    <t>thuis</t>
+  </si>
+  <si>
+    <t>uitzieken</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Maandag</t>
+  </si>
+  <si>
+    <t>wireframes aangepast</t>
   </si>
 </sst>
 </file>
@@ -465,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,6 +599,37 @@
         <v>18</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="E17">
+        <v>330</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek Joey.xlsx
+++ b/Documents/Logboeken/Logboek Joey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>wireframes aangepast</t>
+  </si>
+  <si>
+    <t>aan php voor website gewerkt</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,6 +633,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E19">
+        <v>330</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek Joey.xlsx
+++ b/Documents/Logboeken/Logboek Joey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>aan php voor website gewerkt</t>
+  </si>
+  <si>
+    <t>aan c# voor applicatie gewerkt</t>
+  </si>
+  <si>
+    <t>morgen kijken noël en Ik verder naar een oplossing</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -633,7 +639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -645,6 +651,20 @@
       </c>
       <c r="G19" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="E20">
+        <v>330</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Logboeken/Logboek Joey.xlsx
+++ b/Documents/Logboeken/Logboek Joey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -109,9 +109,6 @@
     <t>Week 2</t>
   </si>
   <si>
-    <t>Maandag</t>
-  </si>
-  <si>
     <t>wireframes aangepast</t>
   </si>
   <si>
@@ -122,6 +119,30 @@
   </si>
   <si>
     <t>morgen kijken noël en Ik verder naar een oplossing</t>
+  </si>
+  <si>
+    <t>woensdag</t>
+  </si>
+  <si>
+    <t>maandag</t>
+  </si>
+  <si>
+    <t>dinsdag</t>
+  </si>
+  <si>
+    <t>Dondaerdag</t>
+  </si>
+  <si>
+    <t>gekeken met noël naar wireframes</t>
+  </si>
+  <si>
+    <t>aan c# voor applicate gewerkt</t>
+  </si>
+  <si>
+    <t>kaan gevraagd wat hij deed</t>
+  </si>
+  <si>
+    <t>we hebben hem een html taak gegeven</t>
   </si>
 </sst>
 </file>
@@ -495,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +648,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3">
         <v>0.57986111111111105</v>
@@ -636,35 +657,88 @@
         <v>330</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E19">
+        <v>330</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E19">
-        <v>330</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E21">
+        <v>330</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="E22">
+        <v>330</v>
+      </c>
+      <c r="G22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="E20">
-        <v>330</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="N22" t="s">
         <v>27</v>
       </c>
-      <c r="N20" t="s">
-        <v>28</v>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E24">
+        <v>330</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E25">
+        <v>330</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="E26">
+        <v>330</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Logboeken/Logboek Joey.xlsx
+++ b/Documents/Logboeken/Logboek Joey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Datum</t>
-  </si>
-  <si>
-    <t>Tijd</t>
   </si>
   <si>
     <t>Verrichte werkzaamheden</t>
@@ -130,9 +127,6 @@
     <t>dinsdag</t>
   </si>
   <si>
-    <t>Dondaerdag</t>
-  </si>
-  <si>
     <t>gekeken met noël naar wireframes</t>
   </si>
   <si>
@@ -143,6 +137,18 @@
   </si>
   <si>
     <t>we hebben hem een html taak gegeven</t>
+  </si>
+  <si>
+    <t>Vrij</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>BeginTijd</t>
+  </si>
+  <si>
+    <t>EindTijd</t>
   </si>
 </sst>
 </file>
@@ -516,15 +522,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -539,7 +546,7 @@
     </row>
     <row r="3" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -547,198 +554,285 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>0.5625</v>
       </c>
+      <c r="D7" s="3">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="E7">
         <v>330</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>0.58333333333333337</v>
       </c>
+      <c r="D8" s="3">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="E8">
         <v>330</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>0.54166666666666663</v>
       </c>
+      <c r="D10" s="3">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="E10">
         <v>330</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>0.64583333333333337</v>
       </c>
+      <c r="D11" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11">
+        <v>330</v>
+      </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>0.375</v>
       </c>
+      <c r="D13" s="3">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="E13">
         <v>330</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3">
         <v>0.57986111111111105</v>
       </c>
+      <c r="D17" s="3">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="E17">
         <v>330</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3">
         <v>0.54166666666666663</v>
       </c>
+      <c r="D19" s="3">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="E19">
         <v>330</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3">
         <v>0.5625</v>
       </c>
+      <c r="D21" s="3">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="E21">
         <v>330</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>0.625</v>
       </c>
+      <c r="D22" s="3">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E22">
         <v>330</v>
       </c>
       <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
         <v>26</v>
-      </c>
-      <c r="N22" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <v>0.39583333333333331</v>
       </c>
+      <c r="D24" s="3">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="E24">
         <v>330</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>0.45833333333333331</v>
       </c>
+      <c r="D25" s="3">
+        <v>0.45902777777777781</v>
+      </c>
       <c r="E25">
         <v>330</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>0.45902777777777781</v>
       </c>
+      <c r="D26" s="3">
+        <v>0.51388888888888895</v>
+      </c>
       <c r="E26">
         <v>330</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E30">
+        <v>330</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E31">
+        <v>330</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Logboeken/Logboek Joey.xlsx
+++ b/Documents/Logboeken/Logboek Joey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,6 +835,23 @@
         <v>31</v>
       </c>
     </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E33">
+        <v>330</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek Joey.xlsx
+++ b/Documents/Logboeken/Logboek Joey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,6 +852,113 @@
         <v>31</v>
       </c>
     </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E34">
+        <v>330</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E36">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E37">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E39">
+        <v>330</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E40">
+        <v>330</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E42">
+        <v>330</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E43">
+        <v>330</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
